--- a/Grading_Report/grades.xlsx
+++ b/Grading_Report/grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbasa\Documents\GitHub\RANDOM\Grading_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B87FC6-C209-469F-AB92-6981B5F84295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F981DA6E-8F38-40FD-BB59-E862464EB240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Grading_Report/grades.xlsx
+++ b/Grading_Report/grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbasa\Documents\GitHub\RANDOM\Grading_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F981DA6E-8F38-40FD-BB59-E862464EB240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23584285-4ECB-49A3-86B7-EB85062CF985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>Q1</t>
   </si>
@@ -117,9 +117,6 @@
     <t>LJMG</t>
   </si>
   <si>
-    <t>MAF</t>
-  </si>
-  <si>
     <t>AC</t>
   </si>
   <si>
@@ -127,6 +124,63 @@
   </si>
   <si>
     <t>AZ</t>
+  </si>
+  <si>
+    <t>SHP</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>S3</t>
+  </si>
+  <si>
+    <t>0,6</t>
+  </si>
+  <si>
+    <t>4,5</t>
+  </si>
+  <si>
+    <t>1,35</t>
+  </si>
+  <si>
+    <t>0,25</t>
+  </si>
+  <si>
+    <t>1,45</t>
+  </si>
+  <si>
+    <t>0,3</t>
+  </si>
+  <si>
+    <t>0,65</t>
+  </si>
+  <si>
+    <t>0,5</t>
+  </si>
+  <si>
+    <t>4,2</t>
+  </si>
+  <si>
+    <t>0,45</t>
+  </si>
+  <si>
+    <t>0,55</t>
+  </si>
+  <si>
+    <t>0,9</t>
+  </si>
+  <si>
+    <t>NN</t>
   </si>
 </sst>
 </file>
@@ -258,40 +312,58 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -573,561 +645,838 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="16384" width="8.88671875" style="8"/>
+    <col min="1" max="16384" width="8.88671875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="G1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="R1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="S1" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="T1" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="8">
         <v>2</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5">
-        <v>5</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="C2" s="9">
+        <v>5</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="9">
+        <v>5</v>
+      </c>
+      <c r="H2" s="11">
         <v>3</v>
       </c>
-      <c r="I2" s="5"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="I2" s="9">
+        <v>5</v>
+      </c>
+      <c r="J2" s="9">
+        <v>5</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+    </row>
+    <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="9">
-        <v>4.5</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10">
-        <v>5</v>
-      </c>
-      <c r="H3" s="11">
-        <v>5</v>
-      </c>
-      <c r="I3" s="10"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
+      <c r="B3" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="15">
+        <v>5</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="15">
+        <v>5</v>
+      </c>
+      <c r="H3" s="17">
+        <v>5</v>
+      </c>
+      <c r="I3" s="15">
+        <v>5</v>
+      </c>
+      <c r="J3" s="15">
+        <v>5</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+    </row>
+    <row r="4" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5">
-        <v>5</v>
-      </c>
-      <c r="H4" s="6">
-        <v>5</v>
-      </c>
-      <c r="I4" s="5"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
+      <c r="B4" s="8">
+        <v>5</v>
+      </c>
+      <c r="C4" s="9">
+        <v>5</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="9">
+        <v>5</v>
+      </c>
+      <c r="H4" s="11">
+        <v>5</v>
+      </c>
+      <c r="I4" s="9">
+        <v>5</v>
+      </c>
+      <c r="J4" s="9">
+        <v>5</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="13">
+        <v>2</v>
+      </c>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+    </row>
+    <row r="5" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10">
-        <v>5</v>
-      </c>
-      <c r="H5" s="11">
+      <c r="B5" s="14">
+        <v>0</v>
+      </c>
+      <c r="C5" s="15">
+        <v>0</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="15">
+        <v>5</v>
+      </c>
+      <c r="H5" s="17">
         <v>3</v>
       </c>
-      <c r="I5" s="10"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-    </row>
-    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
+      <c r="I5" s="15">
+        <v>0</v>
+      </c>
+      <c r="J5" s="15">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="13">
+        <v>0</v>
+      </c>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+    </row>
+    <row r="6" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="8">
         <v>1</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5">
-        <v>5</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-    </row>
-    <row r="7" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
+      <c r="C6" s="9">
+        <v>5</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9">
+        <v>5</v>
+      </c>
+      <c r="H6" s="11">
+        <v>0</v>
+      </c>
+      <c r="I6" s="9">
+        <v>5</v>
+      </c>
+      <c r="J6" s="9">
+        <v>5</v>
+      </c>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="13">
+        <v>2</v>
+      </c>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+    </row>
+    <row r="7" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="9">
-        <v>4.5</v>
-      </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10">
-        <v>5</v>
-      </c>
-      <c r="H7" s="11">
-        <v>5</v>
-      </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-    </row>
-    <row r="8" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="B7" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="15">
+        <v>5</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="15">
+        <v>5</v>
+      </c>
+      <c r="H7" s="17">
+        <v>5</v>
+      </c>
+      <c r="I7" s="15">
+        <v>5</v>
+      </c>
+      <c r="J7" s="15">
+        <v>5</v>
+      </c>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="13">
+        <v>0</v>
+      </c>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+    </row>
+    <row r="8" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5">
-        <v>5</v>
-      </c>
-      <c r="H8" s="6">
+      <c r="B8" s="8">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>3</v>
+      </c>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="9">
+        <v>5</v>
+      </c>
+      <c r="H8" s="11">
         <v>4</v>
       </c>
-      <c r="I8" s="5"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-    </row>
-    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="9" t="s">
+      <c r="I8" s="9">
+        <v>3</v>
+      </c>
+      <c r="J8" s="9">
+        <v>3</v>
+      </c>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+    </row>
+    <row r="9" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="9">
-        <v>5</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10">
-        <v>5</v>
-      </c>
-      <c r="H9" s="11">
-        <v>5</v>
-      </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-    </row>
-    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="B9" s="14">
+        <v>5</v>
+      </c>
+      <c r="C9" s="15">
+        <v>5</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="15">
+        <v>5</v>
+      </c>
+      <c r="H9" s="17">
+        <v>5</v>
+      </c>
+      <c r="I9" s="15">
+        <v>5</v>
+      </c>
+      <c r="J9" s="15">
+        <v>5</v>
+      </c>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+    </row>
+    <row r="10" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5">
-        <v>5</v>
-      </c>
-      <c r="H10" s="6">
-        <v>5</v>
-      </c>
-      <c r="I10" s="5"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
+      <c r="B10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="9">
+        <v>5</v>
+      </c>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="9">
+        <v>5</v>
+      </c>
+      <c r="H10" s="11">
+        <v>5</v>
+      </c>
+      <c r="I10" s="9">
+        <v>5</v>
+      </c>
+      <c r="J10" s="9">
+        <v>5</v>
+      </c>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+    </row>
+    <row r="11" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="14">
         <v>3</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10">
-        <v>5</v>
-      </c>
-      <c r="H11" s="11">
-        <v>5</v>
-      </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="C11" s="15">
+        <v>5</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="15">
+        <v>5</v>
+      </c>
+      <c r="H11" s="17">
+        <v>5</v>
+      </c>
+      <c r="I11" s="15">
+        <v>5</v>
+      </c>
+      <c r="J11" s="15">
+        <v>5</v>
+      </c>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+    </row>
+    <row r="12" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4">
-        <v>4.5</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5">
-        <v>5</v>
-      </c>
-      <c r="H12" s="6">
-        <v>5</v>
-      </c>
-      <c r="I12" s="5"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-    </row>
-    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="B12" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="9">
+        <v>5</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="9">
+        <v>5</v>
+      </c>
+      <c r="H12" s="11">
+        <v>5</v>
+      </c>
+      <c r="I12" s="9">
+        <v>5</v>
+      </c>
+      <c r="J12" s="9">
+        <v>5</v>
+      </c>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+    </row>
+    <row r="13" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10">
-        <v>5</v>
-      </c>
-      <c r="H13" s="11">
-        <v>5</v>
-      </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-    </row>
-    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="B13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="15">
+        <v>5</v>
+      </c>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="15">
+        <v>5</v>
+      </c>
+      <c r="H13" s="17">
+        <v>5</v>
+      </c>
+      <c r="I13" s="15">
+        <v>5</v>
+      </c>
+      <c r="J13" s="15">
+        <v>5</v>
+      </c>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="O13" s="12"/>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+      <c r="R13" s="12"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+    </row>
+    <row r="14" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="4">
-        <v>5</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5">
-        <v>5</v>
-      </c>
-      <c r="H14" s="6">
-        <v>5</v>
-      </c>
-      <c r="I14" s="5"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-    </row>
-    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="9" t="s">
+      <c r="B14" s="8">
+        <v>5</v>
+      </c>
+      <c r="C14" s="9">
+        <v>5</v>
+      </c>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="9">
+        <v>5</v>
+      </c>
+      <c r="H14" s="11">
+        <v>5</v>
+      </c>
+      <c r="I14" s="9">
+        <v>5</v>
+      </c>
+      <c r="J14" s="9">
+        <v>5</v>
+      </c>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="12"/>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+      <c r="R14" s="12"/>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+    </row>
+    <row r="15" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="14">
         <v>3</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10">
-        <v>0</v>
-      </c>
-      <c r="H15" s="11">
+      <c r="C15" s="15">
+        <v>3</v>
+      </c>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="15">
+        <v>0</v>
+      </c>
+      <c r="H15" s="17">
         <v>4</v>
       </c>
-      <c r="I15" s="10"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7"/>
-      <c r="O15" s="7"/>
-    </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="I15" s="15">
+        <v>3</v>
+      </c>
+      <c r="J15" s="15">
+        <v>3</v>
+      </c>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+    </row>
+    <row r="16" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="8">
         <v>4</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5">
-        <v>5</v>
-      </c>
-      <c r="H16" s="6">
-        <v>5</v>
-      </c>
-      <c r="I16" s="5"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="7"/>
-      <c r="M16" s="7"/>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="C16" s="9">
+        <v>5</v>
+      </c>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="9">
+        <v>5</v>
+      </c>
+      <c r="H16" s="11">
+        <v>5</v>
+      </c>
+      <c r="I16" s="9">
+        <v>5</v>
+      </c>
+      <c r="J16" s="9">
+        <v>5</v>
+      </c>
+      <c r="K16" s="12"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="12"/>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+      <c r="R16" s="12"/>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+    </row>
+    <row r="17" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="14">
+        <v>0</v>
+      </c>
+      <c r="C17" s="15">
+        <v>0</v>
+      </c>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="15">
+        <v>0</v>
+      </c>
+      <c r="H17" s="17">
+        <v>2</v>
+      </c>
+      <c r="I17" s="15">
+        <v>0</v>
+      </c>
+      <c r="J17" s="15">
+        <v>0</v>
+      </c>
+      <c r="K17" s="12"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O17" s="12"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+    </row>
+    <row r="18" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="9">
-        <v>0</v>
-      </c>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
-        <v>2</v>
-      </c>
-      <c r="I17" s="10"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="7"/>
-      <c r="M17" s="7"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+      <c r="B18" s="8">
+        <v>0</v>
+      </c>
+      <c r="C18" s="9">
+        <v>0</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="11">
+        <v>0</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>0</v>
+      </c>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="13">
+        <v>0</v>
+      </c>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+      <c r="R18" s="12"/>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+    </row>
+    <row r="19" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="4">
-        <v>0</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="7"/>
-      <c r="M18" s="7"/>
-      <c r="N18" s="7"/>
-      <c r="O18" s="7"/>
-    </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="9" t="s">
+      <c r="B19" s="14">
+        <v>0</v>
+      </c>
+      <c r="C19" s="15">
+        <v>0</v>
+      </c>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="15">
+        <v>0</v>
+      </c>
+      <c r="H19" s="17">
+        <v>0</v>
+      </c>
+      <c r="I19" s="15">
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
+        <v>0</v>
+      </c>
+      <c r="K19" s="12"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="12"/>
+      <c r="N19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="O19" s="12"/>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+      <c r="R19" s="12"/>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+    </row>
+    <row r="20" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="9">
-        <v>0</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10">
-        <v>0</v>
-      </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-    </row>
-    <row r="20" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B20" s="4">
-        <v>0</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="5"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="7"/>
-      <c r="M20" s="7"/>
-      <c r="N20" s="7"/>
-      <c r="O20" s="7"/>
-    </row>
-    <row r="21" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9">
-        <v>0</v>
-      </c>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10">
-        <v>0</v>
-      </c>
-      <c r="H21" s="11">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10"/>
-      <c r="J21" s="7"/>
-      <c r="K21" s="7"/>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7"/>
-      <c r="N21" s="7"/>
-      <c r="O21" s="7"/>
+      <c r="B20" s="8">
+        <v>0</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="11">
+        <v>0</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0</v>
+      </c>
+      <c r="J20" s="9">
+        <v>0</v>
+      </c>
+      <c r="K20" s="12"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="12"/>
+      <c r="N20" s="13">
+        <v>0</v>
+      </c>
+      <c r="O20" s="12"/>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+      <c r="R20" s="12"/>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+    </row>
+    <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="14">
+        <v>0</v>
+      </c>
+      <c r="C21" s="15">
+        <v>0</v>
+      </c>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="15">
+        <v>0</v>
+      </c>
+      <c r="H21" s="17">
+        <v>0</v>
+      </c>
+      <c r="I21" s="15">
+        <v>0</v>
+      </c>
+      <c r="J21" s="15">
+        <v>0</v>
+      </c>
+      <c r="K21" s="12"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="12"/>
+      <c r="N21" s="13">
+        <v>0</v>
+      </c>
+      <c r="O21" s="12"/>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Grading_Report/grades.xlsx
+++ b/Grading_Report/grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sbasa\Documents\GitHub\RANDOM\Grading_Report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23584285-4ECB-49A3-86B7-EB85062CF985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{969BFF4A-740F-42C3-96FD-2C2B7183CB6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>Q1</t>
   </si>
@@ -142,42 +142,6 @@
   </si>
   <si>
     <t>S3</t>
-  </si>
-  <si>
-    <t>0,6</t>
-  </si>
-  <si>
-    <t>4,5</t>
-  </si>
-  <si>
-    <t>1,35</t>
-  </si>
-  <si>
-    <t>0,25</t>
-  </si>
-  <si>
-    <t>1,45</t>
-  </si>
-  <si>
-    <t>0,3</t>
-  </si>
-  <si>
-    <t>0,65</t>
-  </si>
-  <si>
-    <t>0,5</t>
-  </si>
-  <si>
-    <t>4,2</t>
-  </si>
-  <si>
-    <t>0,45</t>
-  </si>
-  <si>
-    <t>0,55</t>
-  </si>
-  <si>
-    <t>0,9</t>
   </si>
   <si>
     <t>NN</t>
@@ -312,7 +276,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -363,6 +327,24 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -648,7 +630,7 @@
   <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -722,46 +704,46 @@
       <c r="A2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="18">
         <v>2</v>
       </c>
-      <c r="C2" s="9">
-        <v>5</v>
-      </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="9">
-        <v>5</v>
-      </c>
-      <c r="H2" s="11">
+      <c r="C2" s="19">
+        <v>5</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="19">
+        <v>5</v>
+      </c>
+      <c r="H2" s="21">
         <v>3</v>
       </c>
-      <c r="I2" s="9">
-        <v>5</v>
-      </c>
-      <c r="J2" s="9">
-        <v>5</v>
-      </c>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
+      <c r="I2" s="19">
+        <v>5</v>
+      </c>
+      <c r="J2" s="19">
+        <v>5</v>
+      </c>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="23">
+        <v>0.6</v>
+      </c>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
     </row>
     <row r="3" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>40</v>
+      <c r="B3" s="14">
+        <v>4.5</v>
       </c>
       <c r="C3" s="15">
         <v>5</v>
@@ -784,8 +766,8 @@
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12"/>
-      <c r="N3" s="13" t="s">
-        <v>41</v>
+      <c r="N3" s="13">
+        <v>1.35</v>
       </c>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
@@ -912,8 +894,8 @@
       <c r="A7" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>40</v>
+      <c r="B7" s="14">
+        <v>4.5</v>
       </c>
       <c r="C7" s="15">
         <v>5</v>
@@ -974,8 +956,8 @@
       <c r="K8" s="12"/>
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
-      <c r="N8" s="13" t="s">
-        <v>39</v>
+      <c r="N8" s="13">
+        <v>0.6</v>
       </c>
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
@@ -1012,8 +994,8 @@
       <c r="K9" s="12"/>
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
-      <c r="N9" s="13" t="s">
-        <v>42</v>
+      <c r="N9" s="13">
+        <v>0.25</v>
       </c>
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
@@ -1026,8 +1008,8 @@
       <c r="A10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>40</v>
+      <c r="B10" s="8">
+        <v>4.5</v>
       </c>
       <c r="C10" s="9">
         <v>5</v>
@@ -1050,8 +1032,8 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
       <c r="M10" s="12"/>
-      <c r="N10" s="13" t="s">
-        <v>43</v>
+      <c r="N10" s="13">
+        <v>1.45</v>
       </c>
       <c r="O10" s="12"/>
       <c r="P10" s="12"/>
@@ -1088,8 +1070,8 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
-      <c r="N11" s="13" t="s">
-        <v>44</v>
+      <c r="N11" s="13">
+        <v>0.3</v>
       </c>
       <c r="O11" s="12"/>
       <c r="P11" s="12"/>
@@ -1102,8 +1084,8 @@
       <c r="A12" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>40</v>
+      <c r="B12" s="8">
+        <v>4.5</v>
       </c>
       <c r="C12" s="9">
         <v>5</v>
@@ -1126,8 +1108,8 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
       <c r="M12" s="12"/>
-      <c r="N12" s="13" t="s">
-        <v>45</v>
+      <c r="N12" s="13">
+        <v>0.65</v>
       </c>
       <c r="O12" s="12"/>
       <c r="P12" s="12"/>
@@ -1140,8 +1122,8 @@
       <c r="A13" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="14" t="s">
-        <v>46</v>
+      <c r="B13" s="14">
+        <v>0.5</v>
       </c>
       <c r="C13" s="15">
         <v>5</v>
@@ -1164,8 +1146,8 @@
       <c r="K13" s="12"/>
       <c r="L13" s="12"/>
       <c r="M13" s="12"/>
-      <c r="N13" s="13" t="s">
-        <v>39</v>
+      <c r="N13" s="13">
+        <v>0.6</v>
       </c>
       <c r="O13" s="12"/>
       <c r="P13" s="12"/>
@@ -1202,8 +1184,8 @@
       <c r="K14" s="12"/>
       <c r="L14" s="12"/>
       <c r="M14" s="12"/>
-      <c r="N14" s="13" t="s">
-        <v>47</v>
+      <c r="N14" s="13">
+        <v>4.2</v>
       </c>
       <c r="O14" s="12"/>
       <c r="P14" s="12"/>
@@ -1240,8 +1222,8 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
       <c r="M15" s="12"/>
-      <c r="N15" s="13" t="s">
-        <v>48</v>
+      <c r="N15" s="13">
+        <v>0.45</v>
       </c>
       <c r="O15" s="12"/>
       <c r="P15" s="12"/>
@@ -1278,8 +1260,8 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
       <c r="M16" s="12"/>
-      <c r="N16" s="13" t="s">
-        <v>49</v>
+      <c r="N16" s="13">
+        <v>0.55000000000000004</v>
       </c>
       <c r="O16" s="12"/>
       <c r="P16" s="12"/>
@@ -1316,8 +1298,8 @@
       <c r="K17" s="12"/>
       <c r="L17" s="12"/>
       <c r="M17" s="12"/>
-      <c r="N17" s="13" t="s">
-        <v>44</v>
+      <c r="N17" s="13">
+        <v>0.3</v>
       </c>
       <c r="O17" s="12"/>
       <c r="P17" s="12"/>
@@ -1392,8 +1374,8 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
       <c r="M19" s="12"/>
-      <c r="N19" s="13" t="s">
-        <v>50</v>
+      <c r="N19" s="13">
+        <v>0.9</v>
       </c>
       <c r="O19" s="12"/>
       <c r="P19" s="12"/>
@@ -1442,7 +1424,7 @@
     </row>
     <row r="21" spans="1:20" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="5" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="B21" s="14">
         <v>0</v>
